--- a/Template/Employee Data/DET DS  Field and Office Staff list.xlsx
+++ b/Template/Employee Data/DET DS  Field and Office Staff list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amlan\Ticketing System\Template\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E816FF41-2099-4F2C-9BFF-C6C2C9CB2565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11904C09-A6E0-4983-B7C3-88E3492FF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="1020">
   <si>
     <t>Employee Number</t>
   </si>
@@ -2690,14 +2690,416 @@
     <t>DS Office Staff (23)</t>
   </si>
   <si>
-    <t>KS Staff (23)</t>
+    <t>000010128</t>
+  </si>
+  <si>
+    <t>Kanukula . Raju</t>
+  </si>
+  <si>
+    <t>raju.kanukula@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010131</t>
+  </si>
+  <si>
+    <t>Gonne Shekhar Shekhar</t>
+  </si>
+  <si>
+    <t>shekhar.gonne@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010210</t>
+  </si>
+  <si>
+    <t>Javvaji . Shireesha</t>
+  </si>
+  <si>
+    <t>shirishajawaji@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010276</t>
+  </si>
+  <si>
+    <t>Baikari . Rajesh</t>
+  </si>
+  <si>
+    <t>rajesh.baikari@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010518</t>
+  </si>
+  <si>
+    <t>Madhu . Addla</t>
+  </si>
+  <si>
+    <t>madhu.addla@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010562</t>
+  </si>
+  <si>
+    <t>Pasham . Saicharan</t>
+  </si>
+  <si>
+    <t>sai.charan@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010613</t>
+  </si>
+  <si>
+    <t>Kummari Sreekanth Sreekanth</t>
+  </si>
+  <si>
+    <t>srikanth.kummari@dfmail.org</t>
+  </si>
+  <si>
+    <t>Sahiti . Meduri</t>
+  </si>
+  <si>
+    <t>000010748</t>
+  </si>
+  <si>
+    <t>Akshay . Goharkar</t>
+  </si>
+  <si>
+    <t>akshay.goharkar@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010749</t>
+  </si>
+  <si>
+    <t>Kodali . Sumasree</t>
+  </si>
+  <si>
+    <t>kodali.sumasree@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010751</t>
+  </si>
+  <si>
+    <t>Radhika . Loya</t>
+  </si>
+  <si>
+    <t>radhika.loya@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010753</t>
+  </si>
+  <si>
+    <t>Saipriya . Kampally</t>
+  </si>
+  <si>
+    <t>kampalli.saipriya@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010771</t>
+  </si>
+  <si>
+    <t>Bejjenki . Alekhya</t>
+  </si>
+  <si>
+    <t>alekhya.bejjenki@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010805</t>
+  </si>
+  <si>
+    <t>Kesha Udvitha</t>
+  </si>
+  <si>
+    <t>kesha.udvitha@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0004</t>
+  </si>
+  <si>
+    <t>Baithi . Hemalatha</t>
+  </si>
+  <si>
+    <t>baithi.hemalatha@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0010</t>
+  </si>
+  <si>
+    <t>Sadanaboina . Sravani</t>
+  </si>
+  <si>
+    <t>sravani.sadanaboina@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0026</t>
+  </si>
+  <si>
+    <t>Shivanoori . Venkatesh</t>
+  </si>
+  <si>
+    <t>shivanoori.venkatesh@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0035</t>
+  </si>
+  <si>
+    <t>Pedda Ganga Ganga</t>
+  </si>
+  <si>
+    <t>pedda.gangaprasad@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0037</t>
+  </si>
+  <si>
+    <t>Shivani . Vemula</t>
+  </si>
+  <si>
+    <t>shivani.vemula@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0038</t>
+  </si>
+  <si>
+    <t>Penta . Ashok</t>
+  </si>
+  <si>
+    <t>penta.ashok@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0047</t>
+  </si>
+  <si>
+    <t>Samala . Ravi</t>
+  </si>
+  <si>
+    <t>samala.ravi@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0074</t>
+  </si>
+  <si>
+    <t>Nyalakanti . Rakshitha</t>
+  </si>
+  <si>
+    <t>nyalakanti.rakshitha@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0075</t>
+  </si>
+  <si>
+    <t>Jilla . Rakshitha</t>
+  </si>
+  <si>
+    <t>jilla.rakshitha@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0077</t>
+  </si>
+  <si>
+    <t>Kashapa . Janani</t>
+  </si>
+  <si>
+    <t>kashapa.janani@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0081</t>
+  </si>
+  <si>
+    <t>Sindhe . Aishwarya</t>
+  </si>
+  <si>
+    <t>sindhe.aishwarya@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0084</t>
+  </si>
+  <si>
+    <t>Rathod Vikas Subhash</t>
+  </si>
+  <si>
+    <t>rathod.vikas@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0085</t>
+  </si>
+  <si>
+    <t>Shubhangi Balaji Bodke</t>
+  </si>
+  <si>
+    <t>shubhangi.balaji@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0087</t>
+  </si>
+  <si>
+    <t>Omprasad Digambar Tate</t>
+  </si>
+  <si>
+    <t>omprasad.tate@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0091</t>
+  </si>
+  <si>
+    <t>A . Sangeetha</t>
+  </si>
+  <si>
+    <t>sangeetha.a@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0113</t>
+  </si>
+  <si>
+    <t>Suthari . Saikiran</t>
+  </si>
+  <si>
+    <t>suthari.saikiran@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0115</t>
+  </si>
+  <si>
+    <t>Galve . Roopa</t>
+  </si>
+  <si>
+    <t>galve.roopa@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0139</t>
+  </si>
+  <si>
+    <t>Chindam . Rachana</t>
+  </si>
+  <si>
+    <t>chindam.rachana@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0146</t>
+  </si>
+  <si>
+    <t>Dasari . Varaprasad</t>
+  </si>
+  <si>
+    <t>dasari.varaprasad@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0147</t>
+  </si>
+  <si>
+    <t>Gajbinkar . Rajashekar</t>
+  </si>
+  <si>
+    <t>gajbinkar.rajashekar@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0149</t>
+  </si>
+  <si>
+    <t>Vadlakonda . Nagavyshnavi</t>
+  </si>
+  <si>
+    <t>vadlakonda.nagavyshnavi@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0154</t>
+  </si>
+  <si>
+    <t>Ande Madhu Sudan Reddy</t>
+  </si>
+  <si>
+    <t>madhusudan.reddy@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0180</t>
+  </si>
+  <si>
+    <t>Aniket Vasant Jadhav</t>
+  </si>
+  <si>
+    <t>aniket.jadhav@dfmail.org</t>
+  </si>
+  <si>
+    <t>KS Staff</t>
+  </si>
+  <si>
+    <t>KS Staff (37)</t>
+  </si>
+  <si>
+    <t>akshaykumar.joshi@dfmail.org</t>
+  </si>
+  <si>
+    <t>jayadeepa.m@dfmail.org</t>
+  </si>
+  <si>
+    <t>pragya.sharma@dfmail.org</t>
+  </si>
+  <si>
+    <t>saiprakash.pawar@dfmail.org</t>
+  </si>
+  <si>
+    <t>saraswati.vishwakarma@dfmail.org</t>
+  </si>
+  <si>
+    <t>soorya.d@dfmail.org</t>
+  </si>
+  <si>
+    <t>v.wesley@dfmail.org</t>
+  </si>
+  <si>
+    <t>vishwanath.badiger@dfmail.org</t>
+  </si>
+  <si>
+    <t>000010550</t>
+  </si>
+  <si>
+    <t>Akshaykumar Joshi</t>
+  </si>
+  <si>
+    <t>000010743</t>
+  </si>
+  <si>
+    <t>Jayadeepa M</t>
+  </si>
+  <si>
+    <t>000010762</t>
+  </si>
+  <si>
+    <t>Pragya Sharma</t>
+  </si>
+  <si>
+    <t>000010502</t>
+  </si>
+  <si>
+    <t>Saiprakash Pawar</t>
+  </si>
+  <si>
+    <t>000010334</t>
+  </si>
+  <si>
+    <t>Saraswati</t>
+  </si>
+  <si>
+    <t>000010734</t>
+  </si>
+  <si>
+    <t>Soorya D</t>
+  </si>
+  <si>
+    <t>CON00030</t>
+  </si>
+  <si>
+    <t>V Wesley Elias</t>
+  </si>
+  <si>
+    <t>000010731</t>
+  </si>
+  <si>
+    <t>Vishwanath K Badiger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2740,6 +3142,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2779,10 +3195,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2794,10 +3212,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2806,109 +3235,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{65282E7E-1D4E-4D7F-8C9C-FAF7C14F3F10}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3229,10 +3568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z119"/>
+  <dimension ref="A1:Z456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3243,10 +3582,11 @@
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" customWidth="1"/>
     <col min="7" max="7" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="9"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="28.44140625" customWidth="1"/>
     <col min="11" max="11" width="29.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="25.6640625" customWidth="1"/>
     <col min="15" max="15" width="35.6640625" customWidth="1"/>
@@ -3263,41 +3603,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="E1" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="M1" s="8" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="M1" s="14" t="s">
         <v>883</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="Q1" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="8" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="Y1" s="10" t="s">
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="Y1" s="17" t="s">
         <v>812</v>
       </c>
-      <c r="Z1" s="10"/>
+      <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3309,22 +3649,22 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -3345,7 +3685,7 @@
       <c r="S2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="13"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3372,14 +3712,23 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>352</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>887</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>460</v>
@@ -3422,14 +3771,23 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>354</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>890</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>461</v>
@@ -3462,7 +3820,7 @@
       <c r="Y4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="16" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3476,14 +3834,23 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>358</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>893</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>466</v>
@@ -3516,7 +3883,7 @@
       <c r="Y5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z5" s="9"/>
+      <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3528,14 +3895,23 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>360</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>896</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>469</v>
@@ -3568,7 +3944,7 @@
       <c r="Y6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" s="9"/>
+      <c r="Z6" s="16"/>
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3580,14 +3956,23 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>363</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>899</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>472</v>
@@ -3620,7 +4005,7 @@
       <c r="Y7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="Z7" s="9"/>
+      <c r="Z7" s="16"/>
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -3632,14 +4017,23 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>366</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>902</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>475</v>
@@ -3672,7 +4066,7 @@
       <c r="Y8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Z8" s="9"/>
+      <c r="Z8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -3684,14 +4078,23 @@
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>369</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>905</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>478</v>
@@ -3724,7 +4127,7 @@
       <c r="Y9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -3736,14 +4139,23 @@
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>372</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>870</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>481</v>
@@ -3776,7 +4188,7 @@
       <c r="Y10" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="Z10" s="9"/>
+      <c r="Z10" s="16"/>
     </row>
     <row r="11" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -3788,14 +4200,23 @@
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>375</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>909</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>484</v>
@@ -3828,7 +4249,7 @@
       <c r="Y11" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="Z11" s="9"/>
+      <c r="Z11" s="16"/>
     </row>
     <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -3840,14 +4261,23 @@
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>912</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>487</v>
@@ -3880,7 +4310,7 @@
       <c r="Y12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="16"/>
     </row>
     <row r="13" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -3892,14 +4322,23 @@
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>381</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>915</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>490</v>
@@ -3932,7 +4371,7 @@
       <c r="Y13" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="16"/>
     </row>
     <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -3944,14 +4383,23 @@
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>384</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>918</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>493</v>
@@ -3994,14 +4442,23 @@
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>387</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>921</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>496</v>
@@ -4034,7 +4491,7 @@
       <c r="Y15" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="Z15" s="13" t="s">
         <v>811</v>
       </c>
     </row>
@@ -4048,14 +4505,23 @@
       <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>390</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>924</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>499</v>
@@ -4088,7 +4554,7 @@
       <c r="Y16" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="Z16" s="11"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -4100,14 +4566,23 @@
       <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>393</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>927</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>502</v>
@@ -4140,7 +4615,7 @@
       <c r="Y17" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="Z17" s="11"/>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -4152,14 +4627,23 @@
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>396</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>930</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>505</v>
@@ -4189,6 +4673,8 @@
       <c r="W18" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -4200,14 +4686,23 @@
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>399</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>933</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>508</v>
@@ -4237,6 +4732,12 @@
       <c r="W19" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="Y19" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="20" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -4248,14 +4749,23 @@
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>402</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>936</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>509</v>
@@ -4296,14 +4806,23 @@
       <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>405</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>939</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>514</v>
@@ -4344,14 +4863,23 @@
       <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>408</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>942</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>517</v>
@@ -4392,14 +4920,23 @@
       <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>411</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>945</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>520</v>
@@ -4440,14 +4977,23 @@
       <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>414</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>948</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>523</v>
@@ -4488,14 +5034,23 @@
       <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>417</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>951</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>526</v>
@@ -4536,14 +5091,23 @@
       <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>420</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>954</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>529</v>
@@ -4574,14 +5138,23 @@
       <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>423</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>956</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>957</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>530</v>
@@ -4612,14 +5185,23 @@
       <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>427</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>960</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>535</v>
@@ -4650,14 +5232,23 @@
       <c r="C29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>429</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>963</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>538</v>
@@ -4688,14 +5279,23 @@
       <c r="C30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>433</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>966</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>541</v>
@@ -4726,14 +5326,23 @@
       <c r="C31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>435</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>969</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>544</v>
@@ -4764,14 +5373,23 @@
       <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>438</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>972</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>547</v>
@@ -4802,14 +5420,23 @@
       <c r="C33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>441</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>975</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>550</v>
@@ -4840,14 +5467,23 @@
       <c r="C34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>444</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>978</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>553</v>
@@ -4878,14 +5514,23 @@
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>447</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>981</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>556</v>
@@ -4916,14 +5561,23 @@
       <c r="C36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>450</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>984</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>557</v>
@@ -4954,14 +5608,23 @@
       <c r="C37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>453</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>562</v>
@@ -4992,14 +5655,23 @@
       <c r="C38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>456</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>990</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>565</v>
@@ -5021,14 +5693,23 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="I39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>459</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>993</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>568</v>
@@ -5049,7 +5730,16 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E40" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>996</v>
+      </c>
       <c r="M40" s="2" t="s">
         <v>571</v>
       </c>
@@ -5069,7 +5759,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E41" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>997</v>
+      </c>
       <c r="M41" s="2" t="s">
         <v>574</v>
       </c>
@@ -5089,7 +5788,16 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E42" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>998</v>
+      </c>
       <c r="M42" s="2" t="s">
         <v>577</v>
       </c>
@@ -5109,7 +5817,16 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E43" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>999</v>
+      </c>
       <c r="M43" s="2" t="s">
         <v>578</v>
       </c>
@@ -5129,7 +5846,16 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E44" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>1000</v>
+      </c>
       <c r="M44" s="2" t="s">
         <v>583</v>
       </c>
@@ -5149,7 +5875,16 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E45" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>756</v>
+      </c>
       <c r="M45" s="2" t="s">
         <v>586</v>
       </c>
@@ -5169,7 +5904,16 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E46" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>1001</v>
+      </c>
       <c r="M46" s="2" t="s">
         <v>589</v>
       </c>
@@ -5189,7 +5933,16 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E47" s="18" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>1002</v>
+      </c>
       <c r="M47" s="2" t="s">
         <v>592</v>
       </c>
@@ -5209,7 +5962,16 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E48" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>1003</v>
+      </c>
       <c r="M48" s="2" t="s">
         <v>595</v>
       </c>
@@ -5229,7 +5991,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G49" s="4"/>
       <c r="M49" s="2" t="s">
         <v>598</v>
       </c>
@@ -5249,7 +6012,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G50" s="4"/>
       <c r="M50" s="2" t="s">
         <v>599</v>
       </c>
@@ -5269,7 +6033,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G51" s="4"/>
       <c r="M51" s="2" t="s">
         <v>604</v>
       </c>
@@ -5289,7 +6054,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G52" s="4"/>
       <c r="M52" s="2" t="s">
         <v>607</v>
       </c>
@@ -5309,7 +6075,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G53" s="4"/>
       <c r="M53" s="2" t="s">
         <v>610</v>
       </c>
@@ -5329,7 +6096,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G54" s="4"/>
       <c r="M54" s="2" t="s">
         <v>613</v>
       </c>
@@ -5349,7 +6117,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G55" s="4"/>
       <c r="M55" s="2" t="s">
         <v>616</v>
       </c>
@@ -5369,7 +6138,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:23" x14ac:dyDescent="0.3">
       <c r="M56" s="2" t="s">
         <v>619</v>
       </c>
@@ -5389,7 +6158,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G57" s="4"/>
       <c r="M57" s="2" t="s">
         <v>622</v>
       </c>
@@ -5409,7 +6179,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G58" s="4"/>
       <c r="M58" s="2" t="s">
         <v>623</v>
       </c>
@@ -5429,7 +6200,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="59" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G59" s="4"/>
       <c r="M59" s="2" t="s">
         <v>624</v>
       </c>
@@ -5449,7 +6221,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G60" s="4"/>
       <c r="M60" s="2" t="s">
         <v>631</v>
       </c>
@@ -5469,7 +6242,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G61" s="4"/>
       <c r="M61" s="2" t="s">
         <v>634</v>
       </c>
@@ -5489,7 +6263,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G62" s="4"/>
       <c r="M62" s="2" t="s">
         <v>637</v>
       </c>
@@ -5509,7 +6284,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G63" s="4"/>
       <c r="M63" s="2" t="s">
         <v>640</v>
       </c>
@@ -5529,7 +6305,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G64" s="4"/>
       <c r="M64" s="2" t="s">
         <v>643</v>
       </c>
@@ -5549,7 +6326,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="65" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G65" s="4"/>
       <c r="M65" s="2" t="s">
         <v>646</v>
       </c>
@@ -5569,7 +6347,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G66" s="4"/>
       <c r="M66" s="2" t="s">
         <v>649</v>
       </c>
@@ -5589,7 +6368,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G67" s="4"/>
       <c r="M67" s="2" t="s">
         <v>652</v>
       </c>
@@ -5609,7 +6389,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G68" s="4"/>
       <c r="M68" s="2" t="s">
         <v>655</v>
       </c>
@@ -5629,7 +6410,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:23" x14ac:dyDescent="0.3">
       <c r="M69" s="2" t="s">
         <v>658</v>
       </c>
@@ -5649,7 +6430,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G70" s="4"/>
       <c r="M70" s="2" t="s">
         <v>661</v>
       </c>
@@ -5669,7 +6451,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G71" s="4"/>
       <c r="M71" s="2" t="s">
         <v>664</v>
       </c>
@@ -5689,7 +6472,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G72" s="4"/>
       <c r="M72" s="2" t="s">
         <v>667</v>
       </c>
@@ -5709,7 +6493,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G73" s="4"/>
       <c r="M73" s="2" t="s">
         <v>670</v>
       </c>
@@ -5729,7 +6514,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G74" s="4"/>
       <c r="M74" s="2" t="s">
         <v>673</v>
       </c>
@@ -5749,7 +6535,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="75" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G75" s="4"/>
       <c r="M75" s="2" t="s">
         <v>676</v>
       </c>
@@ -5769,7 +6556,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G76" s="4"/>
       <c r="M76" s="2" t="s">
         <v>679</v>
       </c>
@@ -5789,7 +6577,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="77" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G77" s="4"/>
       <c r="M77" s="2" t="s">
         <v>682</v>
       </c>
@@ -5809,7 +6598,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G78" s="4"/>
       <c r="M78" s="2" t="s">
         <v>685</v>
       </c>
@@ -5829,7 +6619,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G79" s="4"/>
       <c r="M79" s="2" t="s">
         <v>686</v>
       </c>
@@ -5849,7 +6640,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="80" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G80" s="4"/>
       <c r="M80" s="2" t="s">
         <v>691</v>
       </c>
@@ -5869,7 +6661,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="81" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G81" s="4"/>
       <c r="M81" s="2" t="s">
         <v>692</v>
       </c>
@@ -5889,7 +6682,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="82" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G82" s="4"/>
       <c r="M82" s="2" t="s">
         <v>697</v>
       </c>
@@ -5900,7 +6694,8 @@
         <v>699</v>
       </c>
     </row>
-    <row r="83" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G83" s="4"/>
       <c r="M83" s="2" t="s">
         <v>700</v>
       </c>
@@ -5911,7 +6706,8 @@
         <v>702</v>
       </c>
     </row>
-    <row r="84" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G84" s="4"/>
       <c r="M84" s="2" t="s">
         <v>703</v>
       </c>
@@ -5922,7 +6718,8 @@
         <v>705</v>
       </c>
     </row>
-    <row r="85" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G85" s="4"/>
       <c r="M85" s="2" t="s">
         <v>706</v>
       </c>
@@ -5933,7 +6730,8 @@
         <v>712</v>
       </c>
     </row>
-    <row r="86" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G86" s="4"/>
       <c r="M86" s="2" t="s">
         <v>707</v>
       </c>
@@ -5944,7 +6742,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="87" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G87" s="4"/>
       <c r="M87" s="2" t="s">
         <v>708</v>
       </c>
@@ -5955,7 +6754,8 @@
         <v>716</v>
       </c>
     </row>
-    <row r="88" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G88" s="4"/>
       <c r="M88" s="2" t="s">
         <v>709</v>
       </c>
@@ -5966,7 +6766,8 @@
         <v>718</v>
       </c>
     </row>
-    <row r="89" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G89" s="4"/>
       <c r="M89" s="2" t="s">
         <v>710</v>
       </c>
@@ -5977,7 +6778,8 @@
         <v>720</v>
       </c>
     </row>
-    <row r="90" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G90" s="4"/>
       <c r="M90" s="2" t="s">
         <v>721</v>
       </c>
@@ -5988,7 +6790,8 @@
         <v>723</v>
       </c>
     </row>
-    <row r="91" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G91" s="4"/>
       <c r="M91" s="2" t="s">
         <v>724</v>
       </c>
@@ -5999,7 +6802,8 @@
         <v>727</v>
       </c>
     </row>
-    <row r="92" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G92" s="4"/>
       <c r="M92" s="2" t="s">
         <v>725</v>
       </c>
@@ -6010,7 +6814,8 @@
         <v>729</v>
       </c>
     </row>
-    <row r="93" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G93" s="4"/>
       <c r="M93" s="2" t="s">
         <v>730</v>
       </c>
@@ -6021,7 +6826,8 @@
         <v>732</v>
       </c>
     </row>
-    <row r="94" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G94" s="4"/>
       <c r="M94" s="2" t="s">
         <v>733</v>
       </c>
@@ -6032,7 +6838,8 @@
         <v>736</v>
       </c>
     </row>
-    <row r="95" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G95" s="4"/>
       <c r="M95" s="2" t="s">
         <v>734</v>
       </c>
@@ -6043,7 +6850,8 @@
         <v>738</v>
       </c>
     </row>
-    <row r="96" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G96" s="4"/>
       <c r="M96" s="2" t="s">
         <v>739</v>
       </c>
@@ -6054,7 +6862,8 @@
         <v>741</v>
       </c>
     </row>
-    <row r="97" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G97" s="4"/>
       <c r="M97" s="2" t="s">
         <v>742</v>
       </c>
@@ -6065,7 +6874,8 @@
         <v>744</v>
       </c>
     </row>
-    <row r="98" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G98" s="4"/>
       <c r="M98" s="2" t="s">
         <v>745</v>
       </c>
@@ -6076,7 +6886,8 @@
         <v>747</v>
       </c>
     </row>
-    <row r="99" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G99" s="4"/>
       <c r="M99" s="2" t="s">
         <v>748</v>
       </c>
@@ -6087,7 +6898,8 @@
         <v>750</v>
       </c>
     </row>
-    <row r="100" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G100" s="4"/>
       <c r="M100" s="2" t="s">
         <v>751</v>
       </c>
@@ -6098,7 +6910,8 @@
         <v>753</v>
       </c>
     </row>
-    <row r="101" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G101" s="4"/>
       <c r="M101" s="2" t="s">
         <v>754</v>
       </c>
@@ -6109,7 +6922,8 @@
         <v>756</v>
       </c>
     </row>
-    <row r="102" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G102" s="4"/>
       <c r="M102" s="2" t="s">
         <v>757</v>
       </c>
@@ -6120,7 +6934,8 @@
         <v>759</v>
       </c>
     </row>
-    <row r="103" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G103" s="4"/>
       <c r="M103" s="2" t="s">
         <v>760</v>
       </c>
@@ -6131,7 +6946,8 @@
         <v>762</v>
       </c>
     </row>
-    <row r="104" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G104" s="4"/>
       <c r="M104" s="2" t="s">
         <v>763</v>
       </c>
@@ -6142,7 +6958,8 @@
         <v>767</v>
       </c>
     </row>
-    <row r="105" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G105" s="4"/>
       <c r="M105" s="2" t="s">
         <v>764</v>
       </c>
@@ -6153,7 +6970,8 @@
         <v>769</v>
       </c>
     </row>
-    <row r="106" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G106" s="4"/>
       <c r="M106" s="2" t="s">
         <v>765</v>
       </c>
@@ -6164,7 +6982,8 @@
         <v>771</v>
       </c>
     </row>
-    <row r="107" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G107" s="4"/>
       <c r="M107" s="2" t="s">
         <v>772</v>
       </c>
@@ -6175,7 +6994,8 @@
         <v>774</v>
       </c>
     </row>
-    <row r="108" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G108" s="4"/>
       <c r="M108" s="2" t="s">
         <v>775</v>
       </c>
@@ -6186,7 +7006,8 @@
         <v>777</v>
       </c>
     </row>
-    <row r="109" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G109" s="4"/>
       <c r="M109" s="2" t="s">
         <v>778</v>
       </c>
@@ -6197,7 +7018,8 @@
         <v>780</v>
       </c>
     </row>
-    <row r="110" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G110" s="4"/>
       <c r="M110" s="2" t="s">
         <v>781</v>
       </c>
@@ -6208,7 +7030,8 @@
         <v>788</v>
       </c>
     </row>
-    <row r="111" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G111" s="4"/>
       <c r="M111" s="2" t="s">
         <v>782</v>
       </c>
@@ -6219,7 +7042,8 @@
         <v>790</v>
       </c>
     </row>
-    <row r="112" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G112" s="4"/>
       <c r="M112" s="2" t="s">
         <v>783</v>
       </c>
@@ -6230,7 +7054,8 @@
         <v>792</v>
       </c>
     </row>
-    <row r="113" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G113" s="4"/>
       <c r="M113" s="2" t="s">
         <v>784</v>
       </c>
@@ -6241,7 +7066,8 @@
         <v>794</v>
       </c>
     </row>
-    <row r="114" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G114" s="4"/>
       <c r="M114" s="2" t="s">
         <v>785</v>
       </c>
@@ -6252,7 +7078,8 @@
         <v>796</v>
       </c>
     </row>
-    <row r="115" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G115" s="4"/>
       <c r="M115" s="2" t="s">
         <v>786</v>
       </c>
@@ -6263,7 +7090,8 @@
         <v>798</v>
       </c>
     </row>
-    <row r="116" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G116" s="4"/>
       <c r="M116" s="2" t="s">
         <v>799</v>
       </c>
@@ -6274,7 +7102,8 @@
         <v>801</v>
       </c>
     </row>
-    <row r="117" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G117" s="4"/>
       <c r="M117" s="2" t="s">
         <v>802</v>
       </c>
@@ -6285,7 +7114,8 @@
         <v>804</v>
       </c>
     </row>
-    <row r="118" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G118" s="4"/>
       <c r="M118" s="2" t="s">
         <v>805</v>
       </c>
@@ -6296,7 +7126,8 @@
         <v>807</v>
       </c>
     </row>
-    <row r="119" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G119" s="4"/>
       <c r="M119" s="2" t="s">
         <v>808</v>
       </c>
@@ -6306,6 +7137,1017 @@
       <c r="O119" s="2" t="s">
         <v>810</v>
       </c>
+    </row>
+    <row r="120" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="7:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G241" s="4"/>
+    </row>
+    <row r="242" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G244" s="4"/>
+    </row>
+    <row r="245" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G245" s="4"/>
+    </row>
+    <row r="246" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G248" s="4"/>
+    </row>
+    <row r="249" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G249" s="4"/>
+    </row>
+    <row r="250" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G250" s="4"/>
+    </row>
+    <row r="251" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G251" s="4"/>
+    </row>
+    <row r="252" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G252" s="4"/>
+    </row>
+    <row r="253" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G253" s="4"/>
+    </row>
+    <row r="254" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G254" s="4"/>
+    </row>
+    <row r="255" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G255" s="4"/>
+    </row>
+    <row r="256" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G256" s="4"/>
+    </row>
+    <row r="257" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G258" s="4"/>
+    </row>
+    <row r="259" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G259" s="4"/>
+    </row>
+    <row r="260" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G261" s="4"/>
+    </row>
+    <row r="262" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G263" s="4"/>
+    </row>
+    <row r="264" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G274" s="4"/>
+    </row>
+    <row r="275" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G275" s="4"/>
+    </row>
+    <row r="276" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G277" s="4"/>
+    </row>
+    <row r="278" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G278" s="4"/>
+    </row>
+    <row r="279" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G281" s="4"/>
+    </row>
+    <row r="282" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G284" s="4"/>
+    </row>
+    <row r="285" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G285" s="4"/>
+    </row>
+    <row r="286" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G286" s="4"/>
+    </row>
+    <row r="287" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G287" s="4"/>
+    </row>
+    <row r="288" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G288" s="4"/>
+    </row>
+    <row r="289" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G289" s="4"/>
+    </row>
+    <row r="290" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G290" s="4"/>
+    </row>
+    <row r="291" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G291" s="4"/>
+    </row>
+    <row r="292" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G292" s="4"/>
+    </row>
+    <row r="293" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G293" s="4"/>
+    </row>
+    <row r="294" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G294" s="4"/>
+    </row>
+    <row r="295" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G295" s="4"/>
+    </row>
+    <row r="296" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G296" s="4"/>
+    </row>
+    <row r="297" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G297" s="4"/>
+    </row>
+    <row r="298" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G298" s="4"/>
+    </row>
+    <row r="299" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G299" s="4"/>
+    </row>
+    <row r="300" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G300" s="4"/>
+    </row>
+    <row r="301" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G301" s="4"/>
+    </row>
+    <row r="302" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G302" s="4"/>
+    </row>
+    <row r="303" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G303" s="4"/>
+    </row>
+    <row r="304" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G304" s="4"/>
+    </row>
+    <row r="305" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G305" s="4"/>
+    </row>
+    <row r="306" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G306" s="4"/>
+    </row>
+    <row r="307" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G307" s="4"/>
+    </row>
+    <row r="308" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G308" s="4"/>
+    </row>
+    <row r="309" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G309" s="4"/>
+    </row>
+    <row r="310" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G310" s="4"/>
+    </row>
+    <row r="311" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G311" s="4"/>
+    </row>
+    <row r="312" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G312" s="4"/>
+    </row>
+    <row r="313" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G313" s="4"/>
+    </row>
+    <row r="314" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G314" s="4"/>
+    </row>
+    <row r="315" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G315" s="4"/>
+    </row>
+    <row r="316" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G316" s="4"/>
+    </row>
+    <row r="317" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G317" s="4"/>
+    </row>
+    <row r="318" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G318" s="4"/>
+    </row>
+    <row r="319" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G319" s="4"/>
+    </row>
+    <row r="320" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G320" s="4"/>
+    </row>
+    <row r="321" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G321" s="4"/>
+    </row>
+    <row r="322" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G322" s="4"/>
+    </row>
+    <row r="323" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G323" s="4"/>
+    </row>
+    <row r="324" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G324" s="4"/>
+    </row>
+    <row r="325" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G325" s="4"/>
+    </row>
+    <row r="326" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G326" s="4"/>
+    </row>
+    <row r="327" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G327" s="4"/>
+    </row>
+    <row r="328" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G329" s="4"/>
+    </row>
+    <row r="330" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G330" s="4"/>
+    </row>
+    <row r="331" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G331" s="4"/>
+    </row>
+    <row r="332" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G332" s="4"/>
+    </row>
+    <row r="333" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G333" s="4"/>
+    </row>
+    <row r="334" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G334" s="4"/>
+    </row>
+    <row r="335" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G335" s="4"/>
+    </row>
+    <row r="336" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G336" s="4"/>
+    </row>
+    <row r="337" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G337" s="4"/>
+    </row>
+    <row r="338" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G338" s="4"/>
+    </row>
+    <row r="339" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G339" s="4"/>
+    </row>
+    <row r="340" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G340" s="4"/>
+    </row>
+    <row r="341" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G341" s="4"/>
+    </row>
+    <row r="342" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G342" s="4"/>
+    </row>
+    <row r="343" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G343" s="4"/>
+    </row>
+    <row r="344" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G344" s="4"/>
+    </row>
+    <row r="345" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G345" s="4"/>
+    </row>
+    <row r="346" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G346" s="4"/>
+    </row>
+    <row r="347" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G347" s="4"/>
+    </row>
+    <row r="348" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G348" s="4"/>
+    </row>
+    <row r="349" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G349" s="4"/>
+    </row>
+    <row r="350" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G350" s="4"/>
+    </row>
+    <row r="351" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G351" s="4"/>
+    </row>
+    <row r="352" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G352" s="4"/>
+    </row>
+    <row r="353" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G353" s="4"/>
+    </row>
+    <row r="354" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G354" s="4"/>
+    </row>
+    <row r="355" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G355" s="4"/>
+    </row>
+    <row r="356" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G356" s="4"/>
+    </row>
+    <row r="357" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G357" s="4"/>
+    </row>
+    <row r="358" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G358" s="4"/>
+    </row>
+    <row r="359" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G359" s="4"/>
+    </row>
+    <row r="360" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G360" s="4"/>
+    </row>
+    <row r="361" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G361" s="4"/>
+    </row>
+    <row r="362" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G362" s="4"/>
+    </row>
+    <row r="363" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G363" s="4"/>
+    </row>
+    <row r="364" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G364" s="4"/>
+    </row>
+    <row r="365" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G365" s="4"/>
+    </row>
+    <row r="366" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G366" s="4"/>
+    </row>
+    <row r="367" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G367" s="4"/>
+    </row>
+    <row r="368" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G368" s="4"/>
+    </row>
+    <row r="369" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G369" s="4"/>
+    </row>
+    <row r="370" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G370" s="4"/>
+    </row>
+    <row r="371" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G371" s="4"/>
+    </row>
+    <row r="372" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G372" s="4"/>
+    </row>
+    <row r="373" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G373" s="4"/>
+    </row>
+    <row r="374" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G374" s="4"/>
+    </row>
+    <row r="375" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G375" s="4"/>
+    </row>
+    <row r="376" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G376" s="4"/>
+    </row>
+    <row r="377" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G377" s="4"/>
+    </row>
+    <row r="378" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G378" s="4"/>
+    </row>
+    <row r="379" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G379" s="4"/>
+    </row>
+    <row r="380" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G380" s="4"/>
+    </row>
+    <row r="381" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G381" s="4"/>
+    </row>
+    <row r="382" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G382" s="4"/>
+    </row>
+    <row r="383" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G383" s="4"/>
+    </row>
+    <row r="384" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G384" s="4"/>
+    </row>
+    <row r="385" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G385" s="4"/>
+    </row>
+    <row r="386" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G386" s="4"/>
+    </row>
+    <row r="387" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G387" s="4"/>
+    </row>
+    <row r="388" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G388" s="4"/>
+    </row>
+    <row r="389" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G389" s="4"/>
+    </row>
+    <row r="390" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G390" s="4"/>
+    </row>
+    <row r="391" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G391" s="4"/>
+    </row>
+    <row r="392" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G392" s="4"/>
+    </row>
+    <row r="393" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G393" s="4"/>
+    </row>
+    <row r="394" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G394" s="4"/>
+    </row>
+    <row r="395" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G395" s="4"/>
+    </row>
+    <row r="396" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G396" s="4"/>
+    </row>
+    <row r="397" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G397" s="4"/>
+    </row>
+    <row r="398" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G398" s="4"/>
+    </row>
+    <row r="399" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G399" s="4"/>
+    </row>
+    <row r="400" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G400" s="4"/>
+    </row>
+    <row r="401" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G401" s="4"/>
+    </row>
+    <row r="402" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G402" s="4"/>
+    </row>
+    <row r="403" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G403" s="4"/>
+    </row>
+    <row r="404" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G404" s="4"/>
+    </row>
+    <row r="405" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G405" s="4"/>
+    </row>
+    <row r="406" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G406" s="4"/>
+    </row>
+    <row r="407" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G407" s="4"/>
+    </row>
+    <row r="408" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G408" s="4"/>
+    </row>
+    <row r="409" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G409" s="4"/>
+    </row>
+    <row r="410" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G410" s="4"/>
+    </row>
+    <row r="411" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G411" s="4"/>
+    </row>
+    <row r="412" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G412" s="4"/>
+    </row>
+    <row r="413" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G413" s="4"/>
+    </row>
+    <row r="414" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G414" s="4"/>
+    </row>
+    <row r="415" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G415" s="4"/>
+    </row>
+    <row r="416" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G416" s="4"/>
+    </row>
+    <row r="417" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G417" s="4"/>
+    </row>
+    <row r="418" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G418" s="4"/>
+    </row>
+    <row r="419" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G419" s="4"/>
+    </row>
+    <row r="420" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G420" s="4"/>
+    </row>
+    <row r="421" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G421" s="4"/>
+    </row>
+    <row r="422" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G422" s="4"/>
+    </row>
+    <row r="423" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G423" s="4"/>
+    </row>
+    <row r="424" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G424" s="4"/>
+    </row>
+    <row r="425" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G425" s="4"/>
+    </row>
+    <row r="426" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G426" s="4"/>
+    </row>
+    <row r="427" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G427" s="4"/>
+    </row>
+    <row r="428" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G428" s="4"/>
+    </row>
+    <row r="429" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G429" s="4"/>
+    </row>
+    <row r="430" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G430" s="4"/>
+    </row>
+    <row r="431" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G431" s="4"/>
+    </row>
+    <row r="432" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G432" s="4"/>
+    </row>
+    <row r="433" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G433" s="4"/>
+    </row>
+    <row r="434" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G434" s="4"/>
+    </row>
+    <row r="435" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G435" s="4"/>
+    </row>
+    <row r="436" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G436" s="4"/>
+    </row>
+    <row r="437" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G437" s="4"/>
+    </row>
+    <row r="438" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G438" s="4"/>
+    </row>
+    <row r="439" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G439" s="4"/>
+    </row>
+    <row r="440" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G440" s="4"/>
+    </row>
+    <row r="441" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G441" s="4"/>
+    </row>
+    <row r="442" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G442" s="4"/>
+    </row>
+    <row r="443" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G443" s="4"/>
+    </row>
+    <row r="444" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G444" s="4"/>
+    </row>
+    <row r="445" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G445" s="4"/>
+    </row>
+    <row r="446" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G446" s="4"/>
+    </row>
+    <row r="447" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G447" s="4"/>
+    </row>
+    <row r="448" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G448" s="4"/>
+    </row>
+    <row r="449" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G449" s="4"/>
+    </row>
+    <row r="450" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G450" s="4"/>
+    </row>
+    <row r="451" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G451" s="4"/>
+    </row>
+    <row r="452" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G452" s="4"/>
+    </row>
+    <row r="453" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G453" s="4"/>
+    </row>
+    <row r="454" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G454" s="4"/>
+    </row>
+    <row r="455" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G455" s="4"/>
+    </row>
+    <row r="456" spans="7:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G456" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6313,47 +8155,19 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="Z4:Z13"/>
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
-  <conditionalFormatting sqref="Y4:Y5">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y6">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y9">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y15">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Y17">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K39" r:id="rId1" xr:uid="{8E630A66-536C-4C7A-A9D5-EF5AE74A5C7E}"/>
+    <hyperlink ref="Y19" r:id="rId2" xr:uid="{51140485-A507-49D5-9236-A483451DCF19}"/>
+    <hyperlink ref="G40" r:id="rId3" xr:uid="{BFCE14EF-C143-49B8-9709-5AC25A58D297}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Template/Employee Data/DET DS  Field and Office Staff list.xlsx
+++ b/Template/Employee Data/DET DS  Field and Office Staff list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amlan\Ticketing System\Template\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11904C09-A6E0-4983-B7C3-88E3492FF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CC075B-50AD-47CC-AC02-1FEF799ED143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="1032">
   <si>
     <t>Employee Number</t>
   </si>
@@ -2681,9 +2681,6 @@
     <t>Skillplus Field Staff (79)</t>
   </si>
   <si>
-    <t>EarlySpark Field Staff (37)</t>
-  </si>
-  <si>
     <t>DET Office Staff (117)</t>
   </si>
   <si>
@@ -3020,9 +3017,6 @@
     <t>KS Staff</t>
   </si>
   <si>
-    <t>KS Staff (37)</t>
-  </si>
-  <si>
     <t>akshaykumar.joshi@dfmail.org</t>
   </si>
   <si>
@@ -3093,6 +3087,48 @@
   </si>
   <si>
     <t>Vishwanath K Badiger</t>
+  </si>
+  <si>
+    <t>CONT0182</t>
+  </si>
+  <si>
+    <t>MARUPAKA SWETHA</t>
+  </si>
+  <si>
+    <t>swetha.marupaka@dfmail.org</t>
+  </si>
+  <si>
+    <t>CONT0183</t>
+  </si>
+  <si>
+    <t>Khatroth Mahender Rathod</t>
+  </si>
+  <si>
+    <t>khatroth.rathod@dfmail.org</t>
+  </si>
+  <si>
+    <t>DFCON0021</t>
+  </si>
+  <si>
+    <t>Linganolla Srikanth</t>
+  </si>
+  <si>
+    <t>srikanth.linganolla@dfmail.org</t>
+  </si>
+  <si>
+    <t>DFCON009</t>
+  </si>
+  <si>
+    <t>Bhanu Prasad Gojigala</t>
+  </si>
+  <si>
+    <t>bhanuprasad.gojigella@dfmail.org</t>
+  </si>
+  <si>
+    <t>KS Staff (41)</t>
+  </si>
+  <si>
+    <t>EarlySpark Field Staff (46)</t>
   </si>
 </sst>
 </file>
@@ -3200,7 +3236,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3220,6 +3256,15 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3235,29 +3280,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{65282E7E-1D4E-4D7F-8C9C-FAF7C14F3F10}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3570,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3603,41 +3632,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>880</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="E1" s="20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="I1" s="20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="M1" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
-        <v>995</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="Q1" s="14" t="s">
-        <v>884</v>
-      </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="7"/>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="Y1" s="17" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="Y1" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="Z1" s="17"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3722,13 +3751,13 @@
         <v>352</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>886</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>887</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>460</v>
@@ -3781,13 +3810,13 @@
         <v>354</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>889</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>890</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>461</v>
@@ -3820,7 +3849,7 @@
       <c r="Y4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="21" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3844,13 +3873,13 @@
         <v>358</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>892</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>893</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>466</v>
@@ -3883,7 +3912,7 @@
       <c r="Y5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z5" s="16"/>
+      <c r="Z5" s="21"/>
     </row>
     <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3905,13 +3934,13 @@
         <v>360</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>895</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>896</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>469</v>
@@ -3944,7 +3973,7 @@
       <c r="Y6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" s="16"/>
+      <c r="Z6" s="21"/>
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3966,13 +3995,13 @@
         <v>363</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>899</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>472</v>
@@ -4005,7 +4034,7 @@
       <c r="Y7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="Z7" s="16"/>
+      <c r="Z7" s="21"/>
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -4027,13 +4056,13 @@
         <v>366</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>902</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>475</v>
@@ -4066,7 +4095,7 @@
       <c r="Y8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="21"/>
     </row>
     <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -4088,13 +4117,13 @@
         <v>369</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>904</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>905</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>478</v>
@@ -4127,7 +4156,7 @@
       <c r="Y9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="21"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -4152,7 +4181,7 @@
         <v>826</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>870</v>
@@ -4188,7 +4217,7 @@
       <c r="Y10" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="Z10" s="16"/>
+      <c r="Z10" s="21"/>
     </row>
     <row r="11" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -4210,13 +4239,13 @@
         <v>375</v>
       </c>
       <c r="I11" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>907</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>908</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>909</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>484</v>
@@ -4249,7 +4278,7 @@
       <c r="Y11" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="Z11" s="16"/>
+      <c r="Z11" s="21"/>
     </row>
     <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -4271,13 +4300,13 @@
         <v>378</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>910</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>911</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>912</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>487</v>
@@ -4310,7 +4339,7 @@
       <c r="Y12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="Z12" s="16"/>
+      <c r="Z12" s="21"/>
     </row>
     <row r="13" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -4332,13 +4361,13 @@
         <v>381</v>
       </c>
       <c r="I13" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>913</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>914</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>915</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>490</v>
@@ -4371,7 +4400,7 @@
       <c r="Y13" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Z13" s="16"/>
+      <c r="Z13" s="21"/>
     </row>
     <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -4393,13 +4422,13 @@
         <v>384</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>916</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>917</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>918</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>493</v>
@@ -4452,13 +4481,13 @@
         <v>387</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>920</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>921</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>496</v>
@@ -4491,7 +4520,7 @@
       <c r="Y15" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="Z15" s="13" t="s">
+      <c r="Z15" s="18" t="s">
         <v>811</v>
       </c>
     </row>
@@ -4515,13 +4544,13 @@
         <v>390</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>922</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" s="10" t="s">
         <v>923</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>924</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>499</v>
@@ -4554,7 +4583,7 @@
       <c r="Y16" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="18"/>
     </row>
     <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -4576,13 +4605,13 @@
         <v>393</v>
       </c>
       <c r="I17" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>925</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>926</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>927</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>502</v>
@@ -4615,7 +4644,7 @@
       <c r="Y17" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="Z17" s="13"/>
+      <c r="Z17" s="18"/>
     </row>
     <row r="18" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -4637,13 +4666,13 @@
         <v>396</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" s="10" t="s">
         <v>929</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>930</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>505</v>
@@ -4696,13 +4725,13 @@
         <v>399</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="J19" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>932</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>933</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>508</v>
@@ -4733,10 +4762,10 @@
         <v>164</v>
       </c>
       <c r="Y19" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="Z19" s="18" t="s">
         <v>993</v>
-      </c>
-      <c r="Z19" s="6" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
@@ -4759,13 +4788,13 @@
         <v>402</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>934</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>935</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>936</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>509</v>
@@ -4795,6 +4824,10 @@
       <c r="W20" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="Y20" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -4816,13 +4849,13 @@
         <v>405</v>
       </c>
       <c r="I21" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>937</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>938</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>939</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>514</v>
@@ -4852,6 +4885,10 @@
       <c r="W21" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="Y21" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Z21" s="18"/>
     </row>
     <row r="22" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -4873,13 +4910,13 @@
         <v>408</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>940</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>941</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>942</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>517</v>
@@ -4909,6 +4946,10 @@
       <c r="W22" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="Y22" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -4930,13 +4971,13 @@
         <v>411</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>943</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>944</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>945</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>520</v>
@@ -4987,13 +5028,13 @@
         <v>414</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="K24" s="10" t="s">
         <v>947</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>948</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>523</v>
@@ -5044,13 +5085,13 @@
         <v>417</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>949</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>950</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>951</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>526</v>
@@ -5101,13 +5142,13 @@
         <v>420</v>
       </c>
       <c r="I26" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>952</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>953</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>954</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>529</v>
@@ -5148,13 +5189,13 @@
         <v>423</v>
       </c>
       <c r="I27" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="10" t="s">
         <v>956</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>957</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>530</v>
@@ -5195,13 +5236,13 @@
         <v>427</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>958</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="10" t="s">
         <v>959</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>960</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>535</v>
@@ -5242,13 +5283,13 @@
         <v>429</v>
       </c>
       <c r="I29" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>961</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>962</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>963</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>538</v>
@@ -5289,13 +5330,13 @@
         <v>433</v>
       </c>
       <c r="I30" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>964</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>965</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>966</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>541</v>
@@ -5336,13 +5377,13 @@
         <v>435</v>
       </c>
       <c r="I31" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="J31" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="10" t="s">
         <v>968</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>969</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>544</v>
@@ -5383,13 +5424,13 @@
         <v>438</v>
       </c>
       <c r="I32" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="J32" s="10" t="s">
         <v>970</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>971</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>972</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>547</v>
@@ -5430,13 +5471,13 @@
         <v>441</v>
       </c>
       <c r="I33" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="J33" s="10" t="s">
         <v>973</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>974</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>975</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>550</v>
@@ -5477,13 +5518,13 @@
         <v>444</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>976</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="K34" s="10" t="s">
         <v>977</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>978</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>553</v>
@@ -5524,13 +5565,13 @@
         <v>447</v>
       </c>
       <c r="I35" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="J35" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="K35" s="10" t="s">
         <v>980</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>981</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>556</v>
@@ -5571,13 +5612,13 @@
         <v>450</v>
       </c>
       <c r="I36" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>982</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="K36" s="10" t="s">
         <v>983</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>984</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>557</v>
@@ -5618,13 +5659,13 @@
         <v>453</v>
       </c>
       <c r="I37" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="J37" s="10" t="s">
         <v>985</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="K37" s="10" t="s">
         <v>986</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>987</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>562</v>
@@ -5665,13 +5706,13 @@
         <v>456</v>
       </c>
       <c r="I38" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>989</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>990</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>565</v>
@@ -5703,13 +5744,13 @@
         <v>459</v>
       </c>
       <c r="I39" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K39" s="11" t="s">
         <v>992</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>993</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>568</v>
@@ -5731,14 +5772,23 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E40" s="18" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>996</v>
+      <c r="E40" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>1020</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>571</v>
@@ -5760,14 +5810,23 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E41" s="18" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>997</v>
+      <c r="E41" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1023</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>574</v>
@@ -5789,14 +5848,23 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E42" s="18" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>998</v>
+      <c r="E42" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1026</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>577</v>
@@ -5818,14 +5886,23 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E43" s="18" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>999</v>
+      <c r="E43" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1029</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>578</v>
@@ -5847,14 +5924,14 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E44" s="18" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>1000</v>
+      <c r="E44" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>998</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>583</v>
@@ -5876,13 +5953,13 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="13" t="s">
         <v>756</v>
       </c>
       <c r="M45" s="2" t="s">
@@ -5905,14 +5982,14 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E46" s="18" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>1001</v>
+      <c r="E46" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>999</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>589</v>
@@ -5934,14 +6011,14 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E47" s="18" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>1002</v>
+      <c r="E47" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>1000</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>592</v>
@@ -5963,14 +6040,14 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E48" s="18" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>1003</v>
+      <c r="E48" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>1001</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>595</v>
@@ -8150,7 +8227,8 @@
       <c r="G456" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="Z19:Z22"/>
     <mergeCell ref="Z15:Z17"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="U1:W1"/>
@@ -8161,13 +8239,19 @@
     <mergeCell ref="Z4:Z13"/>
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
+  <conditionalFormatting sqref="Y20:Y22">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K39" r:id="rId1" xr:uid="{8E630A66-536C-4C7A-A9D5-EF5AE74A5C7E}"/>
     <hyperlink ref="Y19" r:id="rId2" xr:uid="{51140485-A507-49D5-9236-A483451DCF19}"/>
     <hyperlink ref="G40" r:id="rId3" xr:uid="{BFCE14EF-C143-49B8-9709-5AC25A58D297}"/>
+    <hyperlink ref="K40" r:id="rId4" xr:uid="{EE5BB75E-3EE9-4B79-BB03-5128C9D82F35}"/>
+    <hyperlink ref="Y20" r:id="rId5" xr:uid="{88A07049-2CBB-4B29-819B-98D1AC4BF4B3}"/>
+    <hyperlink ref="Y21" r:id="rId6" xr:uid="{C785AC58-830C-4576-ADC3-E557B31BA4BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
